--- a/BOM_REV C/LID_BOARD_REVC_DIGIKEY.xlsx
+++ b/BOM_REV C/LID_BOARD_REVC_DIGIKEY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac797468ac2b4116/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajeeth\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E6B5D9-7272-4892-AED5-4265303C0D7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_79C81EFA9788A010B0C00D414842314401000102" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3F282185-B123-40DD-AC65-430508DE43E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>Index</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Available</t>
   </si>
   <si>
-    <t>Backorder</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -268,6 +265,78 @@
     <t>C32</t>
   </si>
   <si>
+    <t>399-7792-1-ND</t>
+  </si>
+  <si>
+    <t>C0402C391K5RACTU</t>
+  </si>
+  <si>
+    <t>CAP CER 390PF 50V X7R 0402</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>490-4539-1-ND</t>
+  </si>
+  <si>
+    <t>GRM31CR60J107ME39L</t>
+  </si>
+  <si>
+    <t>CAP CER 100UF 6.3V X5R 1206</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>RMCF0402FT560KCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0402FT560K</t>
+  </si>
+  <si>
+    <t>RES 560K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>455-2202-1-ND</t>
+  </si>
+  <si>
+    <t>BM02B-ACHSS-GAN-TF(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD R/A 2POS 1.2MM</t>
+  </si>
+  <si>
+    <t>J1, J2</t>
+  </si>
+  <si>
+    <t>1276-1067-1-ND</t>
+  </si>
+  <si>
+    <t>CL05A105KO5NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 16V X5R 0402</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>CT3091CT-ND</t>
+  </si>
+  <si>
+    <t>222CJVBAR</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
     <t>490-3896-1-ND</t>
   </si>
   <si>
@@ -280,54 +349,6 @@
     <t>C25, C38</t>
   </si>
   <si>
-    <t>399-7792-1-ND</t>
-  </si>
-  <si>
-    <t>C0402C391K5RACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 390PF 50V X7R 0402</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>490-4539-1-ND</t>
-  </si>
-  <si>
-    <t>GRM31CR60J107ME39L</t>
-  </si>
-  <si>
-    <t>CAP CER 100UF 6.3V X5R 1206</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>RMCF0402FT560KCT-ND</t>
-  </si>
-  <si>
-    <t>RMCF0402FT560K</t>
-  </si>
-  <si>
-    <t>RES 560K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>455-2202-1-ND</t>
-  </si>
-  <si>
-    <t>BM02B-ACHSS-GAN-TF(LF)(SN)</t>
-  </si>
-  <si>
-    <t>CONN HEADER SMD R/A 2POS 1.2MM</t>
-  </si>
-  <si>
-    <t>J1, J2</t>
-  </si>
-  <si>
     <t>445-7395-1-ND</t>
   </si>
   <si>
@@ -362,30 +383,6 @@
   </si>
   <si>
     <t>C23, C33, C37</t>
-  </si>
-  <si>
-    <t>1276-1067-1-ND</t>
-  </si>
-  <si>
-    <t>CL05A105KO5NNNC</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 16V X5R 0402</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>CT3091CT-ND</t>
-  </si>
-  <si>
-    <t>222CJVBAR</t>
-  </si>
-  <si>
-    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
-  </si>
-  <si>
-    <t>SW1</t>
   </si>
 </sst>
 </file>
@@ -742,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,12 +753,12 @@
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,331 +786,298 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="H2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J2" s="3">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="2">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.112</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>0.113</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="2">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2.141</v>
-      </c>
-      <c r="J4" s="3">
-        <v>53.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <v>64.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="2">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.25879999999999997</v>
-      </c>
-      <c r="J5" s="3">
-        <v>6.47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="2">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" s="2">
-        <v>25</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="H7">
         <v>0.02</v>
       </c>
-      <c r="J7" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" s="2">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="H8">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J8" s="3">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="3">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
       <c r="G9" s="2">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
       <c r="G10" s="2">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="H10">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J10" s="3">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" s="3">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1121,604 +1085,547 @@
         <v>100</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>100</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>2.8881000000000001</v>
-      </c>
-      <c r="J12" s="3">
-        <v>288.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12">
+        <v>2.9121999999999999</v>
+      </c>
+      <c r="I12" s="3">
+        <v>291.22000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" s="2">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.313</v>
-      </c>
-      <c r="J13" s="3">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="H13">
+        <v>0.316</v>
+      </c>
+      <c r="I13" s="3">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2">
         <v>5034800400</v>
       </c>
       <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
       <c r="G14" s="2">
-        <v>25</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="J14" s="3">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="I14" s="3">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
       <c r="G15" s="2">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>3.706</v>
-      </c>
-      <c r="J15" s="3">
-        <v>92.65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>3.7368000000000001</v>
+      </c>
+      <c r="I15" s="3">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
       <c r="G16" s="2">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="J16" s="3">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I16" s="3">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
       <c r="G17" s="2">
-        <v>25</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>0.217</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
       <c r="G18" s="2">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
       <c r="G19" s="2">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19">
+        <v>30</v>
+      </c>
+      <c r="H19">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J19" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="I19" s="3">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>80</v>
       </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
       <c r="G20" s="2">
-        <v>25</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="J20" s="3">
-        <v>22.13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="I20" s="3">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
-        <v>85</v>
-      </c>
       <c r="G21" s="2">
-        <v>50</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="J21" s="3">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="I21" s="3">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>88</v>
       </c>
-      <c r="F22" t="s">
-        <v>89</v>
-      </c>
       <c r="G22" s="2">
-        <v>25</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0.378</v>
-      </c>
-      <c r="J22" s="3">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I22" s="3">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="F23" t="s">
-        <v>93</v>
-      </c>
       <c r="G23" s="2">
-        <v>25</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1.101</v>
-      </c>
-      <c r="J23" s="3">
-        <v>27.53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
       <c r="G24" s="2">
-        <v>25</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>2.3E-2</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="I24" s="3">
+        <v>48.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>100</v>
       </c>
-      <c r="F25" t="s">
-        <v>101</v>
-      </c>
       <c r="G25" s="2">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="J25" s="3">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
       <c r="G26" s="2">
-        <v>75</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="J26" s="3">
-        <v>36.83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="I26" s="3">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>107</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>108</v>
       </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
       <c r="G27" s="2">
-        <v>50</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0.08</v>
-      </c>
-      <c r="J27" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>0.371</v>
+      </c>
+      <c r="I27" s="3">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="F28" t="s">
-        <v>113</v>
-      </c>
       <c r="G28" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="J28" s="3">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>90</v>
+      </c>
+      <c r="H28">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="I28" s="3">
+        <v>40.770000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>115</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>116</v>
       </c>
-      <c r="F29" t="s">
-        <v>117</v>
-      </c>
       <c r="G29" s="2">
-        <v>25</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>0.08</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>119</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>120</v>
       </c>
-      <c r="F30" t="s">
-        <v>121</v>
-      </c>
       <c r="G30" s="2">
-        <v>25</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0.41720000000000002</v>
-      </c>
-      <c r="J30" s="3">
-        <v>10.43</v>
+        <v>90</v>
+      </c>
+      <c r="H30">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I30" s="3">
+        <v>10.62</v>
       </c>
     </row>
   </sheetData>
